--- a/src/main/resources/att.xlsx
+++ b/src/main/resources/att.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="29385" windowHeight="17085" activeTab="2"/>
+    <workbookView xWindow="135" yWindow="90" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Hofstra" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="242">
   <si>
     <t>Langhorn</t>
   </si>
@@ -742,6 +742,12 @@
   </si>
   <si>
     <t>Out</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1136,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1373,17 +1379,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1459,363 +1454,15 @@
     <xf numFmtId="2" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="174">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="151">
     <dxf>
       <font>
         <b val="0"/>
@@ -1879,16 +1526,38 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1923,73 +1592,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2056,6 +1659,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2088,6 +1694,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2152,113 +1761,108 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2329,6 +1933,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2361,6 +1968,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2393,6 +2003,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2425,6 +2038,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2457,6 +2073,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2489,6 +2108,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2521,6 +2143,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2553,6 +2178,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2585,6 +2213,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2617,6 +2248,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2649,6 +2283,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2681,6 +2318,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2713,6 +2353,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2745,6 +2388,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2777,6 +2423,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2809,6 +2458,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2841,6 +2493,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2873,6 +2528,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2905,6 +2563,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2937,6 +2598,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2969,6 +2633,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3001,6 +2668,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3033,6 +2703,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3065,6 +2738,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3097,6 +2773,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3127,6 +2806,50 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4533,6 +4256,27 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor theme="9" tint="0.79998168889431442"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
@@ -4683,34 +4427,103 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight1 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="totalRow" dxfId="55"/>
-      <tableStyleElement type="firstColumn" dxfId="54"/>
-      <tableStyleElement type="lastColumn" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="150"/>
+      <tableStyleElement type="headerRow" dxfId="149"/>
+      <tableStyleElement type="totalRow" dxfId="148"/>
+      <tableStyleElement type="firstColumn" dxfId="147"/>
+      <tableStyleElement type="lastColumn" dxfId="146"/>
+      <tableStyleElement type="firstRowStripe" dxfId="145"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="144"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium22 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="173"/>
-      <tableStyleElement type="headerRow" dxfId="172"/>
-      <tableStyleElement type="totalRow" dxfId="171"/>
-      <tableStyleElement type="firstColumn" dxfId="170"/>
-      <tableStyleElement type="lastColumn" dxfId="169"/>
-      <tableStyleElement type="firstRowStripe" dxfId="168"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="167"/>
+      <tableStyleElement type="wholeTable" dxfId="143"/>
+      <tableStyleElement type="headerRow" dxfId="142"/>
+      <tableStyleElement type="totalRow" dxfId="141"/>
+      <tableStyleElement type="firstColumn" dxfId="140"/>
+      <tableStyleElement type="lastColumn" dxfId="139"/>
+      <tableStyleElement type="firstRowStripe" dxfId="138"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="137"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium7 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="166"/>
-      <tableStyleElement type="headerRow" dxfId="165"/>
-      <tableStyleElement type="totalRow" dxfId="164"/>
-      <tableStyleElement type="firstColumn" dxfId="163"/>
-      <tableStyleElement type="lastColumn" dxfId="162"/>
-      <tableStyleElement type="firstRowStripe" dxfId="161"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="160"/>
+      <tableStyleElement type="wholeTable" dxfId="136"/>
+      <tableStyleElement type="headerRow" dxfId="135"/>
+      <tableStyleElement type="totalRow" dxfId="134"/>
+      <tableStyleElement type="firstColumn" dxfId="133"/>
+      <tableStyleElement type="lastColumn" dxfId="132"/>
+      <tableStyleElement type="firstRowStripe" dxfId="131"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="130"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5068,35 +4881,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:S40" totalsRowCount="1" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:S40" totalsRowCount="1" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123">
   <autoFilter ref="A2:S39"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="2" name="Last" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="3" name="First" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="4" name="Column2" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="5" name="Column3" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="6" name="Column4" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="7" name="Column5" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="8" name="Column6" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="9" name="Column7" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="10" name="Column8" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="11" name="Column9" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="12" name="Column10" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="13" name="Column11" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="14" name="Column12" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="15" name="Column13" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="16" name="Column14" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="17" name="Column15" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="18" name="Column16" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="19" name="Column17" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="2" name="Last" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="3" name="First" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="4" name="Column2" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="5" name="Column3" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="6" name="Column4" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="7" name="Column5" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="8" name="Column6" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="9" name="Column7" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="10" name="Column8" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="11" name="Column9" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="12" name="Column10" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="13" name="Column11" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="14" name="Column12" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="15" name="Column13" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="16" name="Column14" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="17" name="Column15" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="18" name="Column16" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="19" name="Column17" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Preseason" displayName="Preseason" ref="B2:AD34" headerRowDxfId="19" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Preseason" displayName="Preseason" ref="B2:AD34" headerRowDxfId="79" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B2:AD34"/>
   <sortState ref="B3:AD34">
     <sortCondition ref="B3:B34"/>
@@ -5105,33 +4918,33 @@
   <tableColumns count="29">
     <tableColumn id="1" name="Last" totalsRowLabel="Total" dataCellStyle="Normal"/>
     <tableColumn id="2" name="First" dataCellStyle="Normal"/>
-    <tableColumn id="12" name="9/13" dataDxfId="89" totalsRowDxfId="117"/>
-    <tableColumn id="31" name="9/18" dataDxfId="88" totalsRowDxfId="116"/>
-    <tableColumn id="3" name="9/20" dataDxfId="87" totalsRowDxfId="115" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="9/25" dataDxfId="86" totalsRowDxfId="114" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="27-Sep" dataDxfId="85" totalsRowDxfId="113" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="10/2" dataDxfId="84" totalsRowDxfId="112" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="HHH" dataDxfId="83" totalsRowDxfId="111" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="10/9" dataDxfId="82" totalsRowDxfId="110" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="10/11" dataDxfId="81" totalsRowDxfId="109" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="10/16" dataDxfId="80" totalsRowDxfId="108"/>
-    <tableColumn id="11" name="10/18" dataDxfId="79" totalsRowDxfId="107" dataCellStyle="Normal"/>
-    <tableColumn id="13" name="10/23" dataDxfId="78" totalsRowDxfId="106" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="10/25" dataDxfId="77" totalsRowDxfId="105"/>
-    <tableColumn id="14" name="10/30" dataDxfId="76" totalsRowDxfId="104" dataCellStyle="Normal"/>
-    <tableColumn id="15" name="11/1" dataDxfId="75" totalsRowDxfId="103" dataCellStyle="Normal"/>
-    <tableColumn id="16" name="11/6" dataDxfId="74" totalsRowDxfId="102" dataCellStyle="Normal"/>
-    <tableColumn id="17" name="11/8" dataDxfId="73" totalsRowDxfId="101" dataCellStyle="Normal"/>
-    <tableColumn id="18" name="11/13" dataDxfId="72" totalsRowDxfId="100" dataCellStyle="Normal"/>
-    <tableColumn id="19" name="11/15" dataDxfId="71" totalsRowDxfId="99" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="11/20" dataDxfId="70" totalsRowDxfId="98" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="11/27" dataDxfId="69" totalsRowDxfId="97" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="11/29" dataDxfId="68" totalsRowDxfId="96" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="12/4" dataDxfId="67" totalsRowDxfId="95" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="12/6" dataDxfId="66" totalsRowDxfId="94" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="12/11" dataDxfId="65" totalsRowDxfId="93" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="12/13" dataDxfId="64" totalsRowDxfId="92"/>
-    <tableColumn id="27" name="Pre" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Normal">
+    <tableColumn id="12" name="9/13" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="31" name="9/18" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="3" name="9/20" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="9/25" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="27-Sep" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="10/2" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="HHH" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="10/9" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="10/11" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="10/16" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="11" name="10/18" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="10/23" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="10/25" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="14" name="10/30" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="11/1" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="11/6" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="11/8" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="18" name="11/13" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Normal"/>
+    <tableColumn id="19" name="11/15" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="11/20" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="11/27" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="11/29" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="12/4" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="12/6" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="12/11" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="12/13" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="27" name="Pre" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal">
       <calculatedColumnFormula>SUM(D3:AB3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5140,7 +4953,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Roster" displayName="Roster" ref="B2:L34" headerRowDxfId="43" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Roster" displayName="Roster" ref="B2:L34" headerRowDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B2:L34"/>
   <sortState ref="B3:AD34">
     <sortCondition ref="B3:B34"/>
@@ -5149,15 +4962,15 @@
   <tableColumns count="11">
     <tableColumn id="1" name="Last" totalsRowLabel="Total" dataCellStyle="Normal"/>
     <tableColumn id="2" name="First" dataCellStyle="Normal"/>
-    <tableColumn id="12" name="Safety" totalsRowDxfId="58" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="First Reg." totalsRowDxfId="59" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Grade" dataDxfId="49" totalsRowDxfId="50"/>
-    <tableColumn id="3" name="Phone" dataDxfId="48" totalsRowDxfId="60" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Email" totalsRowDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Veteran?" dataDxfId="47" totalsRowDxfId="62" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Team" dataDxfId="46" totalsRowDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="In" totalsRowDxfId="45" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Out" totalsRowDxfId="44" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="Safety" totalsRowDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="First Reg." totalsRowDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Grade" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="Phone" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Email" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Veteran?" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Team" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="In" totalsRowDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Out" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5471,1215 +5284,1215 @@
   <sheetData>
     <row r="1" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="L2" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="N2" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="109" t="s">
+      <c r="P2" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="109" t="s">
+      <c r="Q2" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="109" t="s">
+      <c r="R2" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="109" t="s">
+      <c r="S2" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="109" t="s">
+      <c r="T2" s="106" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="109" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109">
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106">
         <f>SUM(D3:S3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="109" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109">
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106">
         <f t="shared" ref="T4:T39" si="0">SUM(D4:S4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="109" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="109" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="109" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109">
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="109" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109">
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="109" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109">
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="109" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109">
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="109" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109">
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="109" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109">
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="109" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109">
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="109" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109">
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109">
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="109" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109">
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="109" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109">
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="109" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109">
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="109" t="s">
+      <c r="A19" s="107"/>
+      <c r="B19" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109">
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="109" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109">
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="109" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109">
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="109" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109">
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="109" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109">
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="109" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109">
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="109" t="s">
+      <c r="A25" s="107"/>
+      <c r="B25" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109">
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="109" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109">
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="109" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109">
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="109" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109">
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="109" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109">
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="109" t="s">
+      <c r="A30" s="107"/>
+      <c r="B30" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109">
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="109" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109">
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="109" t="s">
+      <c r="A32" s="107"/>
+      <c r="B32" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109">
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="106"/>
+      <c r="T32" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="109" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109">
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="109" t="s">
+      <c r="A34" s="107"/>
+      <c r="B34" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109">
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="109" t="s">
+      <c r="A35" s="107"/>
+      <c r="B35" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109">
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="109" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109">
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="109" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109">
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
-      <c r="B38" s="109" t="s">
+      <c r="A38" s="107"/>
+      <c r="B38" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109">
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
+      <c r="S38" s="106"/>
+      <c r="T38" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="109" t="s">
+      <c r="A39" s="109"/>
+      <c r="B39" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109">
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="106"/>
+      <c r="T39" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109">
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106">
         <f>SUBTOTAL(109,Table2[Column2])</f>
         <v>0</v>
       </c>
-      <c r="E40" s="109">
+      <c r="E40" s="106">
         <f>SUBTOTAL(109,Table2[Column3])</f>
         <v>0</v>
       </c>
-      <c r="F40" s="109">
+      <c r="F40" s="106">
         <f>SUBTOTAL(109,Table2[Column4])</f>
         <v>0</v>
       </c>
-      <c r="G40" s="109">
+      <c r="G40" s="106">
         <f>SUBTOTAL(109,Table2[Column5])</f>
         <v>0</v>
       </c>
-      <c r="H40" s="109">
+      <c r="H40" s="106">
         <f>SUBTOTAL(109,Table2[Column6])</f>
         <v>0</v>
       </c>
-      <c r="I40" s="109">
+      <c r="I40" s="106">
         <f>SUBTOTAL(109,Table2[Column7])</f>
         <v>0</v>
       </c>
-      <c r="J40" s="109">
+      <c r="J40" s="106">
         <f>SUBTOTAL(109,Table2[Column8])</f>
         <v>0</v>
       </c>
-      <c r="K40" s="109">
+      <c r="K40" s="106">
         <f>SUBTOTAL(109,Table2[Column9])</f>
         <v>0</v>
       </c>
-      <c r="L40" s="109">
+      <c r="L40" s="106">
         <f>SUBTOTAL(109,Table2[Column10])</f>
         <v>0</v>
       </c>
-      <c r="M40" s="109">
+      <c r="M40" s="106">
         <f>SUBTOTAL(109,Table2[Column11])</f>
         <v>0</v>
       </c>
-      <c r="N40" s="109">
+      <c r="N40" s="106">
         <f>SUBTOTAL(109,Table2[Column12])</f>
         <v>0</v>
       </c>
-      <c r="O40" s="109">
+      <c r="O40" s="106">
         <f>SUBTOTAL(109,Table2[Column13])</f>
         <v>0</v>
       </c>
-      <c r="P40" s="109">
+      <c r="P40" s="106">
         <f>SUBTOTAL(109,Table2[Column14])</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="109">
+      <c r="Q40" s="106">
         <f>SUBTOTAL(109,Table2[Column15])</f>
         <v>0</v>
       </c>
-      <c r="R40" s="109">
+      <c r="R40" s="106">
         <f>SUBTOTAL(109,Table2[Column16])</f>
         <v>0</v>
       </c>
-      <c r="S40" s="109">
+      <c r="S40" s="106">
         <f>SUBTOTAL(109,Table2[Column17])</f>
         <v>0</v>
       </c>
-      <c r="T40" s="109"/>
+      <c r="T40" s="106"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
-      <c r="T41" s="108">
+      <c r="T41" s="105">
         <f>SUM(T3:T39)</f>
         <v>0</v>
       </c>
@@ -6704,21 +6517,21 @@
         <f>AVERAGEIFS(#REF!,#REF!,"&gt;0")</f>
         <v>#REF!</v>
       </c>
-      <c r="S42" s="107"/>
+      <c r="S42" s="104"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:S20 E21:S39 B3:C3 E3:S3">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="129" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D39">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="128" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="127" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6736,10 +6549,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,8 +6560,8 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -6764,7 +6577,7 @@
     <col min="41" max="41" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -6777,7 +6590,7 @@
       <c r="J1" s="2"/>
       <c r="AO1" s="22"/>
     </row>
-    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="41" t="s">
         <v>10</v>
@@ -6785,8 +6598,12 @@
       <c r="C2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="43">
+        <v>43393</v>
+      </c>
+      <c r="E2" s="43">
+        <v>43398</v>
+      </c>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
@@ -6825,8 +6642,11 @@
       <c r="AO2" s="46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -6836,12 +6656,12 @@
       <c r="C3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="93"/>
       <c r="K3" s="93"/>
       <c r="L3" s="93"/>
@@ -6858,27 +6678,30 @@
       <c r="W3" s="93"/>
       <c r="X3" s="93"/>
       <c r="Y3" s="93"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
       <c r="AO3" s="47">
         <f>SUM(D3:AN3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -6929,8 +6752,11 @@
         <f t="shared" ref="AO4:AO39" si="0">SUM(D4:AN4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -6981,8 +6807,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -7033,8 +6862,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -7044,7 +6876,9 @@
       <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="77">
+        <v>1</v>
+      </c>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
@@ -7083,10 +6917,13 @@
       <c r="AN7" s="71"/>
       <c r="AO7" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -7137,8 +6974,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -7189,8 +7029,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -7241,8 +7084,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -7252,7 +7098,9 @@
       <c r="C11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="71"/>
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -7291,10 +7139,13 @@
       <c r="AN11" s="71"/>
       <c r="AO11" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>54321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -7345,8 +7196,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -7356,7 +7210,9 @@
       <c r="C13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="72">
+        <v>2</v>
+      </c>
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
       <c r="G13" s="72"/>
@@ -7395,10 +7251,13 @@
       <c r="AN13" s="71"/>
       <c r="AO13" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -7449,8 +7308,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -7501,8 +7363,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -7553,8 +7418,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -7605,8 +7473,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -7657,8 +7528,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -7709,8 +7583,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -7762,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -7796,7 +7673,7 @@
       <c r="Y21" s="71"/>
       <c r="Z21" s="71"/>
       <c r="AA21" s="76"/>
-      <c r="AB21" s="102"/>
+      <c r="AB21" s="99"/>
       <c r="AC21" s="75"/>
       <c r="AD21" s="75"/>
       <c r="AE21" s="75"/>
@@ -7813,8 +7690,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -7857,7 +7737,7 @@
       <c r="AH22" s="88"/>
       <c r="AI22" s="88"/>
       <c r="AJ22" s="88"/>
-      <c r="AK22" s="103"/>
+      <c r="AK22" s="100"/>
       <c r="AL22" s="88"/>
       <c r="AM22" s="88"/>
       <c r="AN22" s="88"/>
@@ -7865,8 +7745,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>21</v>
       </c>
@@ -7876,7 +7759,9 @@
       <c r="C23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="72">
+        <v>1.5</v>
+      </c>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
@@ -7915,17 +7800,20 @@
       <c r="AN23" s="71"/>
       <c r="AO23" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="AP23">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>22</v>
       </c>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="103" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="72"/>
@@ -7961,7 +7849,7 @@
       <c r="AH24" s="89"/>
       <c r="AI24" s="89"/>
       <c r="AJ24" s="89"/>
-      <c r="AK24" s="104"/>
+      <c r="AK24" s="101"/>
       <c r="AL24" s="88"/>
       <c r="AM24" s="88"/>
       <c r="AN24" s="88"/>
@@ -7969,8 +7857,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -7980,7 +7871,9 @@
       <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="72"/>
+      <c r="D25" s="72">
+        <v>3</v>
+      </c>
       <c r="E25" s="72"/>
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
@@ -8013,16 +7906,19 @@
       <c r="AH25" s="89"/>
       <c r="AI25" s="89"/>
       <c r="AJ25" s="89"/>
-      <c r="AK25" s="104"/>
+      <c r="AK25" s="101"/>
       <c r="AL25" s="88"/>
       <c r="AM25" s="88"/>
       <c r="AN25" s="88"/>
       <c r="AO25" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>24</v>
       </c>
@@ -8065,7 +7961,7 @@
       <c r="AH26" s="89"/>
       <c r="AI26" s="89"/>
       <c r="AJ26" s="89"/>
-      <c r="AK26" s="104"/>
+      <c r="AK26" s="101"/>
       <c r="AL26" s="88"/>
       <c r="AM26" s="88"/>
       <c r="AN26" s="88"/>
@@ -8073,8 +7969,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>25</v>
       </c>
@@ -8117,7 +8016,7 @@
       <c r="AH27" s="89"/>
       <c r="AI27" s="89"/>
       <c r="AJ27" s="89"/>
-      <c r="AK27" s="104"/>
+      <c r="AK27" s="101"/>
       <c r="AL27" s="88"/>
       <c r="AM27" s="88"/>
       <c r="AN27" s="88"/>
@@ -8125,8 +8024,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>26</v>
       </c>
@@ -8169,7 +8071,7 @@
       <c r="AH28" s="89"/>
       <c r="AI28" s="89"/>
       <c r="AJ28" s="89"/>
-      <c r="AK28" s="104"/>
+      <c r="AK28" s="101"/>
       <c r="AL28" s="88"/>
       <c r="AM28" s="88"/>
       <c r="AN28" s="88"/>
@@ -8177,8 +8079,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>27</v>
       </c>
@@ -8221,7 +8126,7 @@
       <c r="AH29" s="89"/>
       <c r="AI29" s="89"/>
       <c r="AJ29" s="89"/>
-      <c r="AK29" s="104"/>
+      <c r="AK29" s="101"/>
       <c r="AL29" s="88"/>
       <c r="AM29" s="88"/>
       <c r="AN29" s="88"/>
@@ -8229,8 +8134,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>28</v>
       </c>
@@ -8273,7 +8181,7 @@
       <c r="AH30" s="89"/>
       <c r="AI30" s="89"/>
       <c r="AJ30" s="89"/>
-      <c r="AK30" s="104"/>
+      <c r="AK30" s="101"/>
       <c r="AL30" s="88"/>
       <c r="AM30" s="88"/>
       <c r="AN30" s="88"/>
@@ -8281,8 +8189,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>29</v>
       </c>
@@ -8325,7 +8236,7 @@
       <c r="AH31" s="89"/>
       <c r="AI31" s="89"/>
       <c r="AJ31" s="89"/>
-      <c r="AK31" s="104"/>
+      <c r="AK31" s="101"/>
       <c r="AL31" s="88"/>
       <c r="AM31" s="88"/>
       <c r="AN31" s="88"/>
@@ -8333,8 +8244,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>30</v>
       </c>
@@ -8377,7 +8291,7 @@
       <c r="AH32" s="89"/>
       <c r="AI32" s="89"/>
       <c r="AJ32" s="89"/>
-      <c r="AK32" s="104"/>
+      <c r="AK32" s="101"/>
       <c r="AL32" s="88"/>
       <c r="AM32" s="88"/>
       <c r="AN32" s="88"/>
@@ -8385,8 +8299,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>31</v>
       </c>
@@ -8429,7 +8346,7 @@
       <c r="AH33" s="90"/>
       <c r="AI33" s="90"/>
       <c r="AJ33" s="90"/>
-      <c r="AK33" s="105"/>
+      <c r="AK33" s="102"/>
       <c r="AL33" s="88"/>
       <c r="AM33" s="88"/>
       <c r="AN33" s="88"/>
@@ -8437,8 +8354,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>32</v>
       </c>
@@ -8481,7 +8401,7 @@
       <c r="AH34" s="89"/>
       <c r="AI34" s="89"/>
       <c r="AJ34" s="89"/>
-      <c r="AK34" s="104"/>
+      <c r="AK34" s="101"/>
       <c r="AL34" s="88"/>
       <c r="AM34" s="88"/>
       <c r="AN34" s="88"/>
@@ -8489,8 +8409,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>33</v>
       </c>
@@ -8533,7 +8456,7 @@
       <c r="AH35" s="89"/>
       <c r="AI35" s="89"/>
       <c r="AJ35" s="89"/>
-      <c r="AK35" s="104"/>
+      <c r="AK35" s="101"/>
       <c r="AL35" s="88"/>
       <c r="AM35" s="88"/>
       <c r="AN35" s="88"/>
@@ -8541,8 +8464,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP35">
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>34</v>
       </c>
@@ -8585,7 +8511,7 @@
       <c r="AH36" s="89"/>
       <c r="AI36" s="89"/>
       <c r="AJ36" s="89"/>
-      <c r="AK36" s="104"/>
+      <c r="AK36" s="101"/>
       <c r="AL36" s="88"/>
       <c r="AM36" s="88"/>
       <c r="AN36" s="88"/>
@@ -8593,8 +8519,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>35</v>
       </c>
@@ -8637,7 +8566,7 @@
       <c r="AH37" s="89"/>
       <c r="AI37" s="89"/>
       <c r="AJ37" s="89"/>
-      <c r="AK37" s="104"/>
+      <c r="AK37" s="101"/>
       <c r="AL37" s="88"/>
       <c r="AM37" s="88"/>
       <c r="AN37" s="88"/>
@@ -8645,15 +8574,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>36</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C38" s="94" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="74"/>
@@ -8689,7 +8621,7 @@
       <c r="AH38" s="90"/>
       <c r="AI38" s="90"/>
       <c r="AJ38" s="90"/>
-      <c r="AK38" s="105"/>
+      <c r="AK38" s="102"/>
       <c r="AL38" s="88"/>
       <c r="AM38" s="88"/>
       <c r="AN38" s="88"/>
@@ -8697,8 +8629,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -8741,7 +8676,7 @@
       <c r="AH39" s="88"/>
       <c r="AI39" s="88"/>
       <c r="AJ39" s="88"/>
-      <c r="AK39" s="103"/>
+      <c r="AK39" s="100"/>
       <c r="AL39" s="88"/>
       <c r="AM39" s="88"/>
       <c r="AN39" s="88"/>
@@ -8750,163 +8685,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100" t="s">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="98">
         <f>COUNT(D3:D39)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="101">
+        <v>5</v>
+      </c>
+      <c r="E40" s="98">
         <f t="shared" ref="E40:AN40" si="1">COUNT(E3:E39)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="101">
+      <c r="F40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="101">
+      <c r="G40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="101">
+      <c r="H40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="101">
+      <c r="I40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="101">
+      <c r="J40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="101">
+      <c r="K40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L40" s="101">
+      <c r="L40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="101">
+      <c r="M40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N40" s="101">
+      <c r="N40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O40" s="101">
+      <c r="O40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P40" s="101">
+      <c r="P40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="101">
+      <c r="Q40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R40" s="101">
+      <c r="R40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S40" s="101">
+      <c r="S40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T40" s="101">
+      <c r="T40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U40" s="101">
+      <c r="U40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V40" s="101">
+      <c r="V40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W40" s="101">
+      <c r="W40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X40" s="101">
+      <c r="X40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="101">
+      <c r="Y40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="101">
+      <c r="Z40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="101">
+      <c r="AA40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="101">
+      <c r="AB40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="101">
+      <c r="AC40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="101">
+      <c r="AD40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="101">
+      <c r="AE40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF40" s="101">
+      <c r="AF40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG40" s="101">
+      <c r="AG40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="101">
+      <c r="AH40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="101">
+      <c r="AI40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="101">
+      <c r="AJ40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="101">
+      <c r="AK40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="101">
+      <c r="AL40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="101">
+      <c r="AM40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="101">
+      <c r="AN40" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO40" s="55"/>
     </row>
-    <row r="42" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -8923,9 +8858,9 @@
       </c>
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
-      <c r="R42" s="31" t="e">
+      <c r="R42" s="31">
         <f>AVERAGEIFS(D40:AM40,D40:AM40,"&gt;0")</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="T42" s="29"/>
       <c r="U42" s="30"/>
@@ -8945,17 +8880,17 @@
       <c r="AN42" s="32"/>
       <c r="AO42" s="35">
         <f>SUM(AO3:AO39)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D24:AN24 B25:AN36 D37:AN37 B10:C11 B22:AN23 B21:AA21 AC21:AN21 B12:AN20 D10:AN10 AL11:AN11 B4:AN9 B38:AN39">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="84" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:AK11">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8972,8 +8907,8 @@
   </sheetPr>
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8999,91 +8934,91 @@
   <sheetData>
     <row r="1" spans="1:55" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="117" t="s">
+      <c r="L2" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="117" t="s">
+      <c r="M2" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="117" t="s">
+      <c r="O2" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="S2" s="117" t="s">
+      <c r="S2" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="117" t="s">
+      <c r="T2" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="U2" s="117" t="s">
+      <c r="U2" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="117" t="s">
+      <c r="V2" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="117" t="s">
+      <c r="W2" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="117" t="s">
+      <c r="X2" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" s="117" t="s">
+      <c r="Y2" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="117" t="s">
+      <c r="Z2" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" s="117" t="s">
+      <c r="AA2" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="117" t="s">
+      <c r="AB2" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="AC2" s="118" t="s">
+      <c r="AC2" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" s="115" t="s">
+      <c r="AD2" s="112" t="s">
         <v>41</v>
       </c>
       <c r="AE2"/>
@@ -9101,58 +9036,58 @@
       <c r="C3" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="115">
-        <v>1</v>
-      </c>
-      <c r="E3" s="115">
-        <v>1</v>
-      </c>
-      <c r="F3" s="115">
-        <v>1</v>
-      </c>
-      <c r="G3" s="115">
-        <v>1</v>
-      </c>
-      <c r="H3" s="115">
-        <v>1</v>
-      </c>
-      <c r="I3" s="115">
-        <v>1</v>
-      </c>
-      <c r="J3" s="115">
-        <v>1</v>
-      </c>
-      <c r="K3" s="115">
-        <v>1</v>
-      </c>
-      <c r="L3" s="115">
-        <v>1</v>
-      </c>
-      <c r="M3" s="115">
-        <v>1</v>
-      </c>
-      <c r="N3" s="115">
-        <v>1</v>
-      </c>
-      <c r="O3" s="115">
-        <v>1</v>
-      </c>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
+      <c r="D3" s="112">
+        <v>1</v>
+      </c>
+      <c r="E3" s="112">
+        <v>1</v>
+      </c>
+      <c r="F3" s="112">
+        <v>1</v>
+      </c>
+      <c r="G3" s="112">
+        <v>1</v>
+      </c>
+      <c r="H3" s="112">
+        <v>1</v>
+      </c>
+      <c r="I3" s="112">
+        <v>1</v>
+      </c>
+      <c r="J3" s="112">
+        <v>1</v>
+      </c>
+      <c r="K3" s="112">
+        <v>1</v>
+      </c>
+      <c r="L3" s="112">
+        <v>1</v>
+      </c>
+      <c r="M3" s="112">
+        <v>1</v>
+      </c>
+      <c r="N3" s="112">
+        <v>1</v>
+      </c>
+      <c r="O3" s="112">
+        <v>1</v>
+      </c>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
       <c r="AD3" s="6">
-        <f>SUM(D3:AB3)</f>
+        <f t="shared" ref="AD3:AD34" si="0">SUM(D3:AB3)</f>
         <v>12</v>
       </c>
       <c r="AE3"/>
@@ -9174,36 +9109,36 @@
       <c r="C4" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="117">
-        <v>1</v>
-      </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="115"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="114">
+        <v>1</v>
+      </c>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="112"/>
       <c r="AD4" s="63">
-        <f>SUM(D4:AB4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE4"/>
@@ -9213,7 +9148,7 @@
     </row>
     <row r="5" spans="1:55" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57">
-        <f t="shared" ref="A5:A34" si="0">A4+1</f>
+        <f t="shared" ref="A5:A34" si="1">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -9222,40 +9157,40 @@
       <c r="C5" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115">
-        <v>1</v>
-      </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115">
-        <v>1</v>
-      </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115">
-        <v>1</v>
-      </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112">
+        <v>1</v>
+      </c>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112">
+        <v>1</v>
+      </c>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112">
+        <v>1</v>
+      </c>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
       <c r="AD5" s="6">
-        <f>SUM(D5:AB5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AE5"/>
@@ -9265,7 +9200,7 @@
     </row>
     <row r="6" spans="1:55" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -9274,44 +9209,44 @@
       <c r="C6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="115">
-        <v>1</v>
-      </c>
-      <c r="N6" s="117">
-        <v>1</v>
-      </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="115"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="112">
+        <v>1</v>
+      </c>
+      <c r="N6" s="114">
+        <v>1</v>
+      </c>
+      <c r="O6" s="114"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="112"/>
       <c r="AD6" s="63">
-        <f>SUM(D6:AB6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:55" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
@@ -9320,52 +9255,52 @@
       <c r="C7" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="117">
-        <v>1</v>
-      </c>
-      <c r="I7" s="117">
-        <v>1</v>
-      </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117">
-        <v>1</v>
-      </c>
-      <c r="L7" s="117">
-        <v>1</v>
-      </c>
-      <c r="M7" s="115">
-        <v>1</v>
-      </c>
-      <c r="N7" s="117">
-        <v>1</v>
-      </c>
-      <c r="O7" s="117"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="117"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114">
+        <v>1</v>
+      </c>
+      <c r="I7" s="114">
+        <v>1</v>
+      </c>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114">
+        <v>1</v>
+      </c>
+      <c r="L7" s="114">
+        <v>1</v>
+      </c>
+      <c r="M7" s="112">
+        <v>1</v>
+      </c>
+      <c r="N7" s="114">
+        <v>1</v>
+      </c>
+      <c r="O7" s="114"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
       <c r="AD7" s="63">
-        <f>SUM(D7:AB7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:55" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -9374,52 +9309,52 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="115">
-        <v>1</v>
-      </c>
-      <c r="E8" s="115">
-        <v>1</v>
-      </c>
-      <c r="F8" s="115">
-        <v>1</v>
-      </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115">
-        <v>1</v>
-      </c>
-      <c r="I8" s="115">
-        <v>1</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115">
-        <v>1</v>
-      </c>
-      <c r="L8" s="115">
-        <v>1</v>
-      </c>
-      <c r="M8" s="115">
-        <v>1</v>
-      </c>
-      <c r="N8" s="115">
-        <v>1</v>
-      </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
+      <c r="D8" s="112">
+        <v>1</v>
+      </c>
+      <c r="E8" s="112">
+        <v>1</v>
+      </c>
+      <c r="F8" s="112">
+        <v>1</v>
+      </c>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112">
+        <v>1</v>
+      </c>
+      <c r="I8" s="112">
+        <v>1</v>
+      </c>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112">
+        <v>1</v>
+      </c>
+      <c r="L8" s="112">
+        <v>1</v>
+      </c>
+      <c r="M8" s="112">
+        <v>1</v>
+      </c>
+      <c r="N8" s="112">
+        <v>1</v>
+      </c>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
       <c r="AD8" s="6">
-        <f>SUM(D8:AB8)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AE8"/>
@@ -9429,7 +9364,7 @@
     </row>
     <row r="9" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -9438,52 +9373,52 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="115">
-        <v>1</v>
-      </c>
-      <c r="E9" s="115">
-        <v>1</v>
-      </c>
-      <c r="F9" s="115">
-        <v>1</v>
-      </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115">
-        <v>1</v>
-      </c>
-      <c r="I9" s="115">
-        <v>1</v>
-      </c>
-      <c r="J9" s="115">
-        <v>1</v>
-      </c>
-      <c r="K9" s="115">
-        <v>1</v>
-      </c>
-      <c r="L9" s="115">
-        <v>1</v>
-      </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115">
-        <v>1</v>
-      </c>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="115"/>
-      <c r="Y9" s="115"/>
-      <c r="Z9" s="115"/>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="115"/>
-      <c r="AC9" s="115"/>
+      <c r="D9" s="112">
+        <v>1</v>
+      </c>
+      <c r="E9" s="112">
+        <v>1</v>
+      </c>
+      <c r="F9" s="112">
+        <v>1</v>
+      </c>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112">
+        <v>1</v>
+      </c>
+      <c r="I9" s="112">
+        <v>1</v>
+      </c>
+      <c r="J9" s="112">
+        <v>1</v>
+      </c>
+      <c r="K9" s="112">
+        <v>1</v>
+      </c>
+      <c r="L9" s="112">
+        <v>1</v>
+      </c>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112">
+        <v>1</v>
+      </c>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
       <c r="AD9" s="6">
-        <f>SUM(D9:AB9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AE9"/>
@@ -9493,7 +9428,7 @@
     </row>
     <row r="10" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -9502,56 +9437,56 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="115">
-        <v>1</v>
-      </c>
-      <c r="E10" s="115">
-        <v>1</v>
-      </c>
-      <c r="F10" s="115">
-        <v>1</v>
-      </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115">
-        <v>1</v>
-      </c>
-      <c r="I10" s="115">
-        <v>1</v>
-      </c>
-      <c r="J10" s="115">
-        <v>1</v>
-      </c>
-      <c r="K10" s="115">
-        <v>1</v>
-      </c>
-      <c r="L10" s="115">
-        <v>1</v>
-      </c>
-      <c r="M10" s="115">
-        <v>1</v>
-      </c>
-      <c r="N10" s="115">
-        <v>1</v>
-      </c>
-      <c r="O10" s="115">
-        <v>1</v>
-      </c>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
+      <c r="D10" s="112">
+        <v>1</v>
+      </c>
+      <c r="E10" s="112">
+        <v>1</v>
+      </c>
+      <c r="F10" s="112">
+        <v>1</v>
+      </c>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112">
+        <v>1</v>
+      </c>
+      <c r="I10" s="112">
+        <v>1</v>
+      </c>
+      <c r="J10" s="112">
+        <v>1</v>
+      </c>
+      <c r="K10" s="112">
+        <v>1</v>
+      </c>
+      <c r="L10" s="112">
+        <v>1</v>
+      </c>
+      <c r="M10" s="112">
+        <v>1</v>
+      </c>
+      <c r="N10" s="112">
+        <v>1</v>
+      </c>
+      <c r="O10" s="112">
+        <v>1</v>
+      </c>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
       <c r="AD10" s="6">
-        <f>SUM(D10:AB10)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AE10"/>
@@ -9561,721 +9496,721 @@
     </row>
     <row r="11" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="112">
+        <v>1</v>
+      </c>
+      <c r="E11" s="112">
+        <v>1</v>
+      </c>
+      <c r="F11" s="112">
+        <v>1</v>
+      </c>
+      <c r="G11" s="112">
+        <v>1</v>
+      </c>
+      <c r="H11" s="112">
+        <v>1</v>
+      </c>
+      <c r="I11" s="112">
+        <v>1</v>
+      </c>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112">
+        <v>1</v>
+      </c>
+      <c r="L11" s="112">
+        <v>1</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112">
+        <v>1</v>
+      </c>
+      <c r="O11" s="112">
+        <v>1</v>
+      </c>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="112">
+        <v>1</v>
+      </c>
+      <c r="E12" s="112">
+        <v>1</v>
+      </c>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112">
+        <v>1</v>
+      </c>
+      <c r="H12" s="112">
+        <v>1</v>
+      </c>
+      <c r="I12" s="112">
+        <v>1</v>
+      </c>
+      <c r="J12" s="112">
+        <v>1</v>
+      </c>
+      <c r="K12" s="112">
+        <v>1</v>
+      </c>
+      <c r="L12" s="112">
+        <v>1</v>
+      </c>
+      <c r="M12" s="112">
+        <v>1</v>
+      </c>
+      <c r="N12" s="112">
+        <v>1</v>
+      </c>
+      <c r="O12" s="112">
+        <v>1</v>
+      </c>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="112"/>
+      <c r="AC12" s="112"/>
+      <c r="AD12" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112">
+        <v>1</v>
+      </c>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112">
+        <v>1</v>
+      </c>
+      <c r="J13" s="112">
+        <v>1</v>
+      </c>
+      <c r="K13" s="112">
+        <v>1</v>
+      </c>
+      <c r="L13" s="112">
+        <v>1</v>
+      </c>
+      <c r="M13" s="112">
+        <v>1</v>
+      </c>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112">
+        <v>1</v>
+      </c>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="112"/>
+      <c r="AD13" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="112">
+        <v>1</v>
+      </c>
+      <c r="E14" s="112">
+        <v>1</v>
+      </c>
+      <c r="F14" s="114">
+        <v>1</v>
+      </c>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114">
+        <v>1</v>
+      </c>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="112">
+        <v>1</v>
+      </c>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="63">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="112">
+        <v>1</v>
+      </c>
+      <c r="E15" s="112">
+        <v>1</v>
+      </c>
+      <c r="F15" s="112">
+        <v>1</v>
+      </c>
+      <c r="G15" s="112">
+        <v>1</v>
+      </c>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112">
+        <v>1</v>
+      </c>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112">
+        <v>1</v>
+      </c>
+      <c r="L15" s="112">
+        <v>1</v>
+      </c>
+      <c r="M15" s="112">
+        <v>1</v>
+      </c>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112">
+        <v>1</v>
+      </c>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="112"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="112"/>
+      <c r="W15" s="112"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="112"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="112"/>
+      <c r="AD15" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="115">
-        <v>1</v>
-      </c>
-      <c r="E11" s="115">
-        <v>1</v>
-      </c>
-      <c r="F11" s="115">
-        <v>1</v>
-      </c>
-      <c r="G11" s="115">
-        <v>1</v>
-      </c>
-      <c r="H11" s="115">
-        <v>1</v>
-      </c>
-      <c r="I11" s="115">
-        <v>1</v>
-      </c>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115">
-        <v>1</v>
-      </c>
-      <c r="L11" s="115">
-        <v>1</v>
-      </c>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115">
-        <v>1</v>
-      </c>
-      <c r="O11" s="115">
-        <v>1</v>
-      </c>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="115"/>
-      <c r="AD11" s="6">
-        <f>SUM(D11:AB11)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+    </row>
+    <row r="16" spans="1:55" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="112">
+        <v>1</v>
+      </c>
+      <c r="E16" s="112">
+        <v>1</v>
+      </c>
+      <c r="F16" s="112">
+        <v>1</v>
+      </c>
+      <c r="G16" s="112">
+        <v>1</v>
+      </c>
+      <c r="H16" s="112">
+        <v>1</v>
+      </c>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112">
+        <v>1</v>
+      </c>
+      <c r="K16" s="112">
+        <v>1</v>
+      </c>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112">
+        <v>1</v>
+      </c>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="112"/>
+      <c r="AC16" s="112"/>
+      <c r="AD16" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112">
+        <v>1</v>
+      </c>
+      <c r="G17" s="112">
+        <v>1</v>
+      </c>
+      <c r="H17" s="112">
+        <v>1</v>
+      </c>
+      <c r="I17" s="112">
+        <v>1</v>
+      </c>
+      <c r="J17" s="112">
+        <v>1</v>
+      </c>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112">
+        <v>1</v>
+      </c>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="114">
+        <v>1</v>
+      </c>
+      <c r="G18" s="114">
+        <v>1</v>
+      </c>
+      <c r="H18" s="114">
+        <v>1</v>
+      </c>
+      <c r="I18" s="114">
+        <v>1</v>
+      </c>
+      <c r="J18" s="114">
+        <v>1</v>
+      </c>
+      <c r="K18" s="114">
+        <v>1</v>
+      </c>
+      <c r="L18" s="114">
+        <v>1</v>
+      </c>
+      <c r="M18" s="112"/>
+      <c r="N18" s="114">
+        <v>1</v>
+      </c>
+      <c r="O18" s="114">
+        <v>1</v>
+      </c>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="112">
+        <v>1</v>
+      </c>
+      <c r="E19" s="112">
+        <v>1</v>
+      </c>
+      <c r="F19" s="112">
+        <v>1</v>
+      </c>
+      <c r="G19" s="112">
+        <v>1</v>
+      </c>
+      <c r="H19" s="112">
+        <v>1</v>
+      </c>
+      <c r="I19" s="112">
+        <v>1</v>
+      </c>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112">
+        <v>1</v>
+      </c>
+      <c r="L19" s="112">
+        <v>1</v>
+      </c>
+      <c r="M19" s="112">
+        <v>1</v>
+      </c>
+      <c r="N19" s="112">
+        <v>1</v>
+      </c>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="115">
-        <v>1</v>
-      </c>
-      <c r="E12" s="115">
-        <v>1</v>
-      </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115">
-        <v>1</v>
-      </c>
-      <c r="H12" s="115">
-        <v>1</v>
-      </c>
-      <c r="I12" s="115">
-        <v>1</v>
-      </c>
-      <c r="J12" s="115">
-        <v>1</v>
-      </c>
-      <c r="K12" s="115">
-        <v>1</v>
-      </c>
-      <c r="L12" s="115">
-        <v>1</v>
-      </c>
-      <c r="M12" s="115">
-        <v>1</v>
-      </c>
-      <c r="N12" s="115">
-        <v>1</v>
-      </c>
-      <c r="O12" s="115">
-        <v>1</v>
-      </c>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="115"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="115"/>
-      <c r="AB12" s="115"/>
-      <c r="AC12" s="115"/>
-      <c r="AD12" s="6">
-        <f>SUM(D12:AB12)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57">
+    </row>
+    <row r="20" spans="1:56" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="112">
+        <v>1</v>
+      </c>
+      <c r="E20" s="112">
+        <v>1</v>
+      </c>
+      <c r="F20" s="112">
+        <v>1</v>
+      </c>
+      <c r="G20" s="112">
+        <v>1</v>
+      </c>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112">
+        <v>1</v>
+      </c>
+      <c r="K20" s="112">
+        <v>1</v>
+      </c>
+      <c r="L20" s="112">
+        <v>1</v>
+      </c>
+      <c r="M20" s="112">
+        <v>1</v>
+      </c>
+      <c r="N20" s="112">
+        <v>1</v>
+      </c>
+      <c r="O20" s="112">
+        <v>1</v>
+      </c>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="112"/>
+      <c r="AC20" s="112"/>
+      <c r="AD20" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115">
-        <v>1</v>
-      </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115">
-        <v>1</v>
-      </c>
-      <c r="J13" s="115">
-        <v>1</v>
-      </c>
-      <c r="K13" s="115">
-        <v>1</v>
-      </c>
-      <c r="L13" s="115">
-        <v>1</v>
-      </c>
-      <c r="M13" s="115">
-        <v>1</v>
-      </c>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115">
-        <v>1</v>
-      </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="115"/>
-      <c r="AA13" s="115"/>
-      <c r="AB13" s="115"/>
-      <c r="AC13" s="115"/>
-      <c r="AD13" s="6">
-        <f>SUM(D13:AB13)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="112">
+        <v>1</v>
+      </c>
+      <c r="E21" s="112">
+        <v>1</v>
+      </c>
+      <c r="F21" s="112">
+        <v>1</v>
+      </c>
+      <c r="G21" s="112">
+        <v>1</v>
+      </c>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112">
+        <v>1</v>
+      </c>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112">
+        <v>1</v>
+      </c>
+      <c r="N21" s="112">
+        <v>1</v>
+      </c>
+      <c r="O21" s="112">
+        <v>1</v>
+      </c>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="112">
+        <v>1</v>
+      </c>
+      <c r="E22" s="112">
+        <v>1</v>
+      </c>
+      <c r="F22" s="112">
+        <v>1</v>
+      </c>
+      <c r="G22" s="112">
+        <v>1</v>
+      </c>
+      <c r="H22" s="112">
+        <v>1</v>
+      </c>
+      <c r="I22" s="112">
+        <v>1</v>
+      </c>
+      <c r="J22" s="112">
+        <v>1</v>
+      </c>
+      <c r="K22" s="112">
+        <v>1</v>
+      </c>
+      <c r="L22" s="112">
+        <v>1</v>
+      </c>
+      <c r="M22" s="112">
+        <v>1</v>
+      </c>
+      <c r="N22" s="112">
+        <v>1</v>
+      </c>
+      <c r="O22" s="112">
+        <v>1</v>
+      </c>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="112"/>
+      <c r="AB22" s="112"/>
+      <c r="AC22" s="112"/>
+      <c r="AD22" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="115">
-        <v>1</v>
-      </c>
-      <c r="E14" s="115">
-        <v>1</v>
-      </c>
-      <c r="F14" s="117">
-        <v>1</v>
-      </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117">
-        <v>1</v>
-      </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="115">
-        <v>1</v>
-      </c>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="63">
-        <f>SUM(D14:AB14)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="115">
-        <v>1</v>
-      </c>
-      <c r="E15" s="115">
-        <v>1</v>
-      </c>
-      <c r="F15" s="115">
-        <v>1</v>
-      </c>
-      <c r="G15" s="115">
-        <v>1</v>
-      </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115">
-        <v>1</v>
-      </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115">
-        <v>1</v>
-      </c>
-      <c r="L15" s="115">
-        <v>1</v>
-      </c>
-      <c r="M15" s="115">
-        <v>1</v>
-      </c>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115">
-        <v>1</v>
-      </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="115"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="115"/>
-      <c r="AD15" s="6">
-        <f>SUM(D15:AB15)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="115">
-        <v>1</v>
-      </c>
-      <c r="E16" s="115">
-        <v>1</v>
-      </c>
-      <c r="F16" s="115">
-        <v>1</v>
-      </c>
-      <c r="G16" s="115">
-        <v>1</v>
-      </c>
-      <c r="H16" s="115">
-        <v>1</v>
-      </c>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115">
-        <v>1</v>
-      </c>
-      <c r="K16" s="115">
-        <v>1</v>
-      </c>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115">
-        <v>1</v>
-      </c>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="115"/>
-      <c r="AC16" s="115"/>
-      <c r="AD16" s="6">
-        <f>SUM(D16:AB16)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115">
-        <v>1</v>
-      </c>
-      <c r="G17" s="115">
-        <v>1</v>
-      </c>
-      <c r="H17" s="115">
-        <v>1</v>
-      </c>
-      <c r="I17" s="115">
-        <v>1</v>
-      </c>
-      <c r="J17" s="115">
-        <v>1</v>
-      </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115">
-        <v>1</v>
-      </c>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="115"/>
-      <c r="AA17" s="115"/>
-      <c r="AB17" s="115"/>
-      <c r="AC17" s="115"/>
-      <c r="AD17" s="6">
-        <f>SUM(D17:AB17)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="117">
-        <v>1</v>
-      </c>
-      <c r="G18" s="117">
-        <v>1</v>
-      </c>
-      <c r="H18" s="117">
-        <v>1</v>
-      </c>
-      <c r="I18" s="117">
-        <v>1</v>
-      </c>
-      <c r="J18" s="117">
-        <v>1</v>
-      </c>
-      <c r="K18" s="117">
-        <v>1</v>
-      </c>
-      <c r="L18" s="117">
-        <v>1</v>
-      </c>
-      <c r="M18" s="115"/>
-      <c r="N18" s="117">
-        <v>1</v>
-      </c>
-      <c r="O18" s="117">
-        <v>1</v>
-      </c>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="63">
-        <f>SUM(D18:AB18)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="115">
-        <v>1</v>
-      </c>
-      <c r="E19" s="115">
-        <v>1</v>
-      </c>
-      <c r="F19" s="115">
-        <v>1</v>
-      </c>
-      <c r="G19" s="115">
-        <v>1</v>
-      </c>
-      <c r="H19" s="115">
-        <v>1</v>
-      </c>
-      <c r="I19" s="115">
-        <v>1</v>
-      </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115">
-        <v>1</v>
-      </c>
-      <c r="L19" s="115">
-        <v>1</v>
-      </c>
-      <c r="M19" s="115">
-        <v>1</v>
-      </c>
-      <c r="N19" s="115">
-        <v>1</v>
-      </c>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="115"/>
-      <c r="T19" s="115"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="115"/>
-      <c r="W19" s="115"/>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="115"/>
-      <c r="Z19" s="115"/>
-      <c r="AA19" s="115"/>
-      <c r="AB19" s="115"/>
-      <c r="AC19" s="115"/>
-      <c r="AD19" s="6">
-        <f>SUM(D19:AB19)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="115">
-        <v>1</v>
-      </c>
-      <c r="E20" s="115">
-        <v>1</v>
-      </c>
-      <c r="F20" s="115">
-        <v>1</v>
-      </c>
-      <c r="G20" s="115">
-        <v>1</v>
-      </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115">
-        <v>1</v>
-      </c>
-      <c r="K20" s="115">
-        <v>1</v>
-      </c>
-      <c r="L20" s="115">
-        <v>1</v>
-      </c>
-      <c r="M20" s="115">
-        <v>1</v>
-      </c>
-      <c r="N20" s="115">
-        <v>1</v>
-      </c>
-      <c r="O20" s="115">
-        <v>1</v>
-      </c>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="115"/>
-      <c r="AD20" s="6">
-        <f>SUM(D20:AB20)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="115">
-        <v>1</v>
-      </c>
-      <c r="E21" s="115">
-        <v>1</v>
-      </c>
-      <c r="F21" s="115">
-        <v>1</v>
-      </c>
-      <c r="G21" s="115">
-        <v>1</v>
-      </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115">
-        <v>1</v>
-      </c>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115">
-        <v>1</v>
-      </c>
-      <c r="N21" s="115">
-        <v>1</v>
-      </c>
-      <c r="O21" s="115">
-        <v>1</v>
-      </c>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="115"/>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="115"/>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="115"/>
-      <c r="AC21" s="115"/>
-      <c r="AD21" s="6">
-        <f>SUM(D21:AB21)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="115">
-        <v>1</v>
-      </c>
-      <c r="E22" s="115">
-        <v>1</v>
-      </c>
-      <c r="F22" s="115">
-        <v>1</v>
-      </c>
-      <c r="G22" s="115">
-        <v>1</v>
-      </c>
-      <c r="H22" s="115">
-        <v>1</v>
-      </c>
-      <c r="I22" s="115">
-        <v>1</v>
-      </c>
-      <c r="J22" s="115">
-        <v>1</v>
-      </c>
-      <c r="K22" s="115">
-        <v>1</v>
-      </c>
-      <c r="L22" s="115">
-        <v>1</v>
-      </c>
-      <c r="M22" s="115">
-        <v>1</v>
-      </c>
-      <c r="N22" s="115">
-        <v>1</v>
-      </c>
-      <c r="O22" s="115">
-        <v>1</v>
-      </c>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="115"/>
-      <c r="Y22" s="115"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="115"/>
-      <c r="AB22" s="115"/>
-      <c r="AC22" s="115"/>
-      <c r="AD22" s="6">
-        <f>SUM(D22:AB22)</f>
-        <v>12</v>
-      </c>
     </row>
     <row r="23" spans="1:56" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -10284,56 +10219,56 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="115">
-        <v>1</v>
-      </c>
-      <c r="E23" s="115">
-        <v>1</v>
-      </c>
-      <c r="F23" s="115">
-        <v>1</v>
-      </c>
-      <c r="G23" s="115">
-        <v>1</v>
-      </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115">
-        <v>1</v>
-      </c>
-      <c r="J23" s="115">
-        <v>1</v>
-      </c>
-      <c r="K23" s="115">
-        <v>1</v>
-      </c>
-      <c r="L23" s="115">
-        <v>1</v>
-      </c>
-      <c r="M23" s="115">
-        <v>1</v>
-      </c>
-      <c r="N23" s="115">
-        <v>1</v>
-      </c>
-      <c r="O23" s="115">
-        <v>1</v>
-      </c>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="115"/>
-      <c r="Z23" s="115"/>
-      <c r="AA23" s="115"/>
-      <c r="AB23" s="115"/>
-      <c r="AC23" s="115"/>
+      <c r="D23" s="112">
+        <v>1</v>
+      </c>
+      <c r="E23" s="112">
+        <v>1</v>
+      </c>
+      <c r="F23" s="112">
+        <v>1</v>
+      </c>
+      <c r="G23" s="112">
+        <v>1</v>
+      </c>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112">
+        <v>1</v>
+      </c>
+      <c r="J23" s="112">
+        <v>1</v>
+      </c>
+      <c r="K23" s="112">
+        <v>1</v>
+      </c>
+      <c r="L23" s="112">
+        <v>1</v>
+      </c>
+      <c r="M23" s="112">
+        <v>1</v>
+      </c>
+      <c r="N23" s="112">
+        <v>1</v>
+      </c>
+      <c r="O23" s="112">
+        <v>1</v>
+      </c>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
       <c r="AD23" s="6">
-        <f>SUM(D23:AB23)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AE23"/>
@@ -10343,7 +10278,7 @@
     </row>
     <row r="24" spans="1:56" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
@@ -10352,46 +10287,46 @@
       <c r="C24" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117">
-        <v>1</v>
-      </c>
-      <c r="J24" s="117">
-        <v>1</v>
-      </c>
-      <c r="K24" s="117">
-        <v>1</v>
-      </c>
-      <c r="L24" s="117">
-        <v>1</v>
-      </c>
-      <c r="M24" s="115">
-        <v>1</v>
-      </c>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117">
-        <v>1</v>
-      </c>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="115"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="114">
+        <v>1</v>
+      </c>
+      <c r="J24" s="114">
+        <v>1</v>
+      </c>
+      <c r="K24" s="114">
+        <v>1</v>
+      </c>
+      <c r="L24" s="114">
+        <v>1</v>
+      </c>
+      <c r="M24" s="112">
+        <v>1</v>
+      </c>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114">
+        <v>1</v>
+      </c>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="114"/>
+      <c r="AC24" s="112"/>
       <c r="AD24" s="63">
-        <f>SUM(D24:AB24)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AE24"/>
@@ -10401,7 +10336,7 @@
     </row>
     <row r="25" spans="1:56" ht="17.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -10410,52 +10345,52 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115">
-        <v>1</v>
-      </c>
-      <c r="H25" s="115">
-        <v>1</v>
-      </c>
-      <c r="I25" s="115">
-        <v>1</v>
-      </c>
-      <c r="J25" s="115">
-        <v>1</v>
-      </c>
-      <c r="K25" s="115">
-        <v>1</v>
-      </c>
-      <c r="L25" s="115">
-        <v>1</v>
-      </c>
-      <c r="M25" s="115">
-        <v>1</v>
-      </c>
-      <c r="N25" s="115">
-        <v>1</v>
-      </c>
-      <c r="O25" s="115">
-        <v>1</v>
-      </c>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="115"/>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="115"/>
-      <c r="AB25" s="115"/>
-      <c r="AC25" s="115"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112">
+        <v>1</v>
+      </c>
+      <c r="H25" s="112">
+        <v>1</v>
+      </c>
+      <c r="I25" s="112">
+        <v>1</v>
+      </c>
+      <c r="J25" s="112">
+        <v>1</v>
+      </c>
+      <c r="K25" s="112">
+        <v>1</v>
+      </c>
+      <c r="L25" s="112">
+        <v>1</v>
+      </c>
+      <c r="M25" s="112">
+        <v>1</v>
+      </c>
+      <c r="N25" s="112">
+        <v>1</v>
+      </c>
+      <c r="O25" s="112">
+        <v>1</v>
+      </c>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="112"/>
       <c r="AD25" s="6">
-        <f>SUM(D25:AB25)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AE25"/>
@@ -10465,7 +10400,7 @@
     </row>
     <row r="26" spans="1:56" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
@@ -10474,54 +10409,54 @@
       <c r="C26" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="117">
-        <v>1</v>
-      </c>
-      <c r="E26" s="117">
-        <v>1</v>
-      </c>
-      <c r="F26" s="117">
-        <v>1</v>
-      </c>
-      <c r="G26" s="117">
-        <v>1</v>
-      </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117">
-        <v>1</v>
-      </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117">
-        <v>1</v>
-      </c>
-      <c r="L26" s="117">
-        <v>1</v>
-      </c>
-      <c r="M26" s="117">
-        <v>1</v>
-      </c>
-      <c r="N26" s="117">
-        <v>1</v>
-      </c>
-      <c r="O26" s="117">
-        <v>1</v>
-      </c>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
+      <c r="D26" s="114">
+        <v>1</v>
+      </c>
+      <c r="E26" s="114">
+        <v>1</v>
+      </c>
+      <c r="F26" s="114">
+        <v>1</v>
+      </c>
+      <c r="G26" s="114">
+        <v>1</v>
+      </c>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114">
+        <v>1</v>
+      </c>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114">
+        <v>1</v>
+      </c>
+      <c r="L26" s="114">
+        <v>1</v>
+      </c>
+      <c r="M26" s="114">
+        <v>1</v>
+      </c>
+      <c r="N26" s="114">
+        <v>1</v>
+      </c>
+      <c r="O26" s="114">
+        <v>1</v>
+      </c>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="114"/>
+      <c r="AC26" s="114"/>
       <c r="AD26" s="59">
-        <f>SUM(D26:AB26)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AE26"/>
@@ -10531,7 +10466,7 @@
     </row>
     <row r="27" spans="1:56" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -10540,46 +10475,46 @@
       <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="115">
-        <v>1</v>
-      </c>
-      <c r="E27" s="115">
-        <v>1</v>
-      </c>
-      <c r="F27" s="115">
-        <v>1</v>
-      </c>
-      <c r="G27" s="115">
-        <v>1</v>
-      </c>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115">
-        <v>1</v>
-      </c>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115" t="s">
+      <c r="D27" s="112">
+        <v>1</v>
+      </c>
+      <c r="E27" s="112">
+        <v>1</v>
+      </c>
+      <c r="F27" s="112">
+        <v>1</v>
+      </c>
+      <c r="G27" s="112">
+        <v>1</v>
+      </c>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112">
+        <v>1</v>
+      </c>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="115"/>
-      <c r="Z27" s="115"/>
-      <c r="AA27" s="115"/>
-      <c r="AB27" s="115"/>
-      <c r="AC27" s="115"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
       <c r="AD27" s="6">
-        <f>SUM(D27:AB27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE27"/>
@@ -10589,7 +10524,7 @@
     </row>
     <row r="28" spans="1:56" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -10598,58 +10533,58 @@
       <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="115">
-        <v>1</v>
-      </c>
-      <c r="E28" s="115">
-        <v>1</v>
-      </c>
-      <c r="F28" s="115">
-        <v>1</v>
-      </c>
-      <c r="G28" s="115">
-        <v>1</v>
-      </c>
-      <c r="H28" s="115">
-        <v>1</v>
-      </c>
-      <c r="I28" s="115">
-        <v>1</v>
-      </c>
-      <c r="J28" s="115">
-        <v>1</v>
-      </c>
-      <c r="K28" s="115">
-        <v>1</v>
-      </c>
-      <c r="L28" s="115">
-        <v>1</v>
-      </c>
-      <c r="M28" s="115">
-        <v>1</v>
-      </c>
-      <c r="N28" s="115">
-        <v>1</v>
-      </c>
-      <c r="O28" s="115">
-        <v>1</v>
-      </c>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="115"/>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="115"/>
-      <c r="AB28" s="115"/>
-      <c r="AC28" s="115"/>
+      <c r="D28" s="112">
+        <v>1</v>
+      </c>
+      <c r="E28" s="112">
+        <v>1</v>
+      </c>
+      <c r="F28" s="112">
+        <v>1</v>
+      </c>
+      <c r="G28" s="112">
+        <v>1</v>
+      </c>
+      <c r="H28" s="112">
+        <v>1</v>
+      </c>
+      <c r="I28" s="112">
+        <v>1</v>
+      </c>
+      <c r="J28" s="112">
+        <v>1</v>
+      </c>
+      <c r="K28" s="112">
+        <v>1</v>
+      </c>
+      <c r="L28" s="112">
+        <v>1</v>
+      </c>
+      <c r="M28" s="112">
+        <v>1</v>
+      </c>
+      <c r="N28" s="112">
+        <v>1</v>
+      </c>
+      <c r="O28" s="112">
+        <v>1</v>
+      </c>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
       <c r="AD28" s="6">
-        <f>SUM(D28:AB28)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AE28"/>
@@ -10659,7 +10594,7 @@
     </row>
     <row r="29" spans="1:56" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
@@ -10668,58 +10603,58 @@
       <c r="C29" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="115">
-        <v>1</v>
-      </c>
-      <c r="E29" s="115">
-        <v>1</v>
-      </c>
-      <c r="F29" s="117">
-        <v>1</v>
-      </c>
-      <c r="G29" s="117">
-        <v>1</v>
-      </c>
-      <c r="H29" s="117">
-        <v>1</v>
-      </c>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117">
-        <v>1</v>
-      </c>
-      <c r="L29" s="117">
-        <v>1</v>
-      </c>
-      <c r="M29" s="115"/>
-      <c r="N29" s="117">
-        <v>1</v>
-      </c>
-      <c r="O29" s="117">
-        <v>1</v>
-      </c>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
+      <c r="D29" s="112">
+        <v>1</v>
+      </c>
+      <c r="E29" s="112">
+        <v>1</v>
+      </c>
+      <c r="F29" s="114">
+        <v>1</v>
+      </c>
+      <c r="G29" s="114">
+        <v>1</v>
+      </c>
+      <c r="H29" s="114">
+        <v>1</v>
+      </c>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114">
+        <v>1</v>
+      </c>
+      <c r="L29" s="114">
+        <v>1</v>
+      </c>
+      <c r="M29" s="112"/>
+      <c r="N29" s="114">
+        <v>1</v>
+      </c>
+      <c r="O29" s="114">
+        <v>1</v>
+      </c>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
       <c r="AD29" s="63">
-        <f>SUM(D29:AB29)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -10728,50 +10663,50 @@
       <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="115">
-        <v>1</v>
-      </c>
-      <c r="E30" s="115">
-        <v>1</v>
-      </c>
-      <c r="F30" s="115">
-        <v>1</v>
-      </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115">
-        <v>1</v>
-      </c>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115">
-        <v>1</v>
-      </c>
-      <c r="L30" s="115">
-        <v>1</v>
-      </c>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115">
-        <v>1</v>
-      </c>
-      <c r="O30" s="115">
-        <v>1</v>
-      </c>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="115"/>
+      <c r="D30" s="112">
+        <v>1</v>
+      </c>
+      <c r="E30" s="112">
+        <v>1</v>
+      </c>
+      <c r="F30" s="112">
+        <v>1</v>
+      </c>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112">
+        <v>1</v>
+      </c>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112">
+        <v>1</v>
+      </c>
+      <c r="L30" s="112">
+        <v>1</v>
+      </c>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112">
+        <v>1</v>
+      </c>
+      <c r="O30" s="112">
+        <v>1</v>
+      </c>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="112"/>
       <c r="AD30" s="6">
-        <f>SUM(D30:AB30)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AE30"/>
@@ -10798,7 +10733,7 @@
     </row>
     <row r="31" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="58" t="s">
@@ -10807,44 +10742,44 @@
       <c r="C31" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="115">
-        <v>1</v>
-      </c>
-      <c r="I31" s="115">
-        <v>1</v>
-      </c>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115">
-        <v>1</v>
-      </c>
-      <c r="M31" s="115"/>
-      <c r="N31" s="117">
-        <v>1</v>
-      </c>
-      <c r="O31" s="117">
-        <v>1</v>
-      </c>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="112">
+        <v>1</v>
+      </c>
+      <c r="I31" s="112">
+        <v>1</v>
+      </c>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112">
+        <v>1</v>
+      </c>
+      <c r="M31" s="112"/>
+      <c r="N31" s="114">
+        <v>1</v>
+      </c>
+      <c r="O31" s="114">
+        <v>1</v>
+      </c>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
       <c r="AD31" s="63">
-        <f>SUM(D31:AB31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE31"/>
@@ -10871,7 +10806,7 @@
     </row>
     <row r="32" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -10880,52 +10815,52 @@
       <c r="C32" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="115">
-        <v>1</v>
-      </c>
-      <c r="E32" s="115">
-        <v>1</v>
-      </c>
-      <c r="F32" s="115">
-        <v>1</v>
-      </c>
-      <c r="G32" s="115">
-        <v>1</v>
-      </c>
-      <c r="H32" s="115">
-        <v>1</v>
-      </c>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115">
-        <v>1</v>
-      </c>
-      <c r="L32" s="115">
-        <v>1</v>
-      </c>
-      <c r="M32" s="115">
-        <v>1</v>
-      </c>
-      <c r="N32" s="115">
-        <v>1</v>
-      </c>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="115"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="115"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="115"/>
-      <c r="Z32" s="115"/>
-      <c r="AA32" s="115"/>
-      <c r="AB32" s="115"/>
-      <c r="AC32" s="115"/>
+      <c r="D32" s="112">
+        <v>1</v>
+      </c>
+      <c r="E32" s="112">
+        <v>1</v>
+      </c>
+      <c r="F32" s="112">
+        <v>1</v>
+      </c>
+      <c r="G32" s="112">
+        <v>1</v>
+      </c>
+      <c r="H32" s="112">
+        <v>1</v>
+      </c>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112">
+        <v>1</v>
+      </c>
+      <c r="L32" s="112">
+        <v>1</v>
+      </c>
+      <c r="M32" s="112">
+        <v>1</v>
+      </c>
+      <c r="N32" s="112">
+        <v>1</v>
+      </c>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
       <c r="AD32" s="6">
-        <f>SUM(D32:AB32)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AE32"/>
@@ -10952,7 +10887,7 @@
     </row>
     <row r="33" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="58" t="s">
@@ -10961,42 +10896,42 @@
       <c r="C33" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="115">
-        <v>1</v>
-      </c>
-      <c r="L33" s="115">
-        <v>1</v>
-      </c>
-      <c r="M33" s="115">
-        <v>1</v>
-      </c>
-      <c r="N33" s="115">
-        <v>1</v>
-      </c>
-      <c r="O33" s="117"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="115"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="112">
+        <v>1</v>
+      </c>
+      <c r="L33" s="112">
+        <v>1</v>
+      </c>
+      <c r="M33" s="112">
+        <v>1</v>
+      </c>
+      <c r="N33" s="112">
+        <v>1</v>
+      </c>
+      <c r="O33" s="114"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="112"/>
       <c r="AD33" s="63">
-        <f>SUM(D33:AB33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE33"/>
@@ -11023,7 +10958,7 @@
     </row>
     <row r="34" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="58" t="s">
@@ -11032,38 +10967,38 @@
       <c r="C34" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="117">
-        <v>1</v>
-      </c>
-      <c r="O34" s="117">
-        <v>1</v>
-      </c>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="115"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="114">
+        <v>1</v>
+      </c>
+      <c r="O34" s="114">
+        <v>1</v>
+      </c>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="112"/>
       <c r="AD34" s="63">
-        <f>SUM(D34:AB34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AI34" s="7"/>
@@ -11091,104 +11026,104 @@
         <f>COUNT(Preseason[9/13])</f>
         <v>20</v>
       </c>
-      <c r="E35" s="114">
-        <f t="shared" ref="E35:AC35" si="1">COUNT(E3:E29)</f>
+      <c r="E35" s="111">
+        <f t="shared" ref="E35:AC35" si="2">COUNT(E3:E29)</f>
         <v>19</v>
       </c>
-      <c r="F35" s="114">
-        <f t="shared" si="1"/>
+      <c r="F35" s="111">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G35" s="114">
-        <f t="shared" si="1"/>
+      <c r="G35" s="111">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="H35" s="114">
-        <f t="shared" si="1"/>
+      <c r="H35" s="111">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I35" s="114">
-        <f t="shared" si="1"/>
+      <c r="I35" s="111">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J35" s="114">
-        <f t="shared" si="1"/>
+      <c r="J35" s="111">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K35" s="114">
-        <f t="shared" si="1"/>
+      <c r="K35" s="111">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L35" s="114">
-        <f t="shared" si="1"/>
+      <c r="L35" s="111">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M35" s="114">
-        <f t="shared" si="1"/>
+      <c r="M35" s="111">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N35" s="114">
-        <f t="shared" si="1"/>
+      <c r="N35" s="111">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O35" s="114">
-        <f t="shared" si="1"/>
+      <c r="O35" s="111">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="P35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="114">
-        <f t="shared" si="1"/>
+      <c r="P35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="111">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI35" s="7"/>
@@ -11219,7 +11154,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="27"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="121">
+      <c r="K36" s="118">
         <f>SUM(AD3:AD34)*2.35</f>
         <v>582.80000000000007</v>
       </c>
@@ -11268,17 +11203,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C40:F44">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="82" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD34">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="lessThan">
       <formula>($S$37)/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:O3 D5:O5 O4 D8:O23 M6:O6 H7:O7 D25:O30 I24:O24 D32:O32 H31:O31 K33:O33 N34:O34">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11339,37 +11274,37 @@
       <c r="A2" s="57">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="L2" s="117" t="s">
+      <c r="L2" s="114" t="s">
         <v>239</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -11414,16 +11349,16 @@
       <c r="E3" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="112">
         <v>10</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="112" t="s">
         <v>173</v>
       </c>
       <c r="H3" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -11459,14 +11394,14 @@
       <c r="E4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="112">
         <v>9</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="112" t="s">
         <v>174</v>
       </c>
       <c r="H4"/>
-      <c r="I4" s="115"/>
+      <c r="I4" s="112"/>
       <c r="J4" s="59"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
@@ -11496,16 +11431,16 @@
       <c r="E5" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="112">
         <v>9</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="112" t="s">
         <v>175</v>
       </c>
       <c r="H5" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="112"/>
       <c r="J5" s="59"/>
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
@@ -11534,12 +11469,12 @@
       <c r="E6" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="115"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="59"/>
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
@@ -11580,16 +11515,16 @@
       <c r="E7" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="112">
         <v>9</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="112" t="s">
         <v>176</v>
       </c>
       <c r="H7" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="59"/>
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
@@ -11632,16 +11567,16 @@
       <c r="E8" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="112">
         <v>12</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="112" t="s">
         <v>177</v>
       </c>
       <c r="H8" t="s">
         <v>208</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="59" t="s">
@@ -11674,16 +11609,16 @@
       <c r="E9" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="112">
         <v>12</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="112" t="s">
         <v>178</v>
       </c>
       <c r="H9" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="59" t="s">
@@ -11716,16 +11651,16 @@
       <c r="E10" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="115">
+      <c r="F10" s="112">
         <v>10</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="112" t="s">
         <v>179</v>
       </c>
       <c r="H10" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J10" s="59" t="s">
@@ -11758,16 +11693,16 @@
       <c r="E11" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="112">
         <v>10</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="112" t="s">
         <v>180</v>
       </c>
       <c r="H11" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J11" s="59" t="s">
@@ -11812,16 +11747,16 @@
       <c r="E12" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="115">
+      <c r="F12" s="112">
         <v>10</v>
       </c>
-      <c r="G12" s="115" t="s">
+      <c r="G12" s="112" t="s">
         <v>181</v>
       </c>
       <c r="H12" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J12" s="59" t="s">
@@ -11868,16 +11803,16 @@
       <c r="E13" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="115">
+      <c r="F13" s="112">
         <v>11</v>
       </c>
-      <c r="G13" s="115" t="s">
+      <c r="G13" s="112" t="s">
         <v>182</v>
       </c>
       <c r="H13" t="s">
         <v>213</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J13" s="59" t="s">
@@ -11924,16 +11859,16 @@
       <c r="E14" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="115">
+      <c r="F14" s="112">
         <v>12</v>
       </c>
-      <c r="G14" s="115" t="s">
+      <c r="G14" s="112" t="s">
         <v>183</v>
       </c>
       <c r="H14" t="s">
         <v>214</v>
       </c>
-      <c r="I14" s="115"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="59"/>
       <c r="K14" s="58"/>
       <c r="L14" s="58"/>
@@ -11976,16 +11911,16 @@
       <c r="E15" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="112">
         <v>10</v>
       </c>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="112" t="s">
         <v>184</v>
       </c>
       <c r="H15" t="s">
         <v>215</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="59" t="s">
@@ -12032,16 +11967,16 @@
       <c r="E16" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="112">
         <v>9</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="112" t="s">
         <v>185</v>
       </c>
       <c r="H16" t="s">
         <v>216</v>
       </c>
-      <c r="I16" s="115"/>
+      <c r="I16" s="112"/>
       <c r="J16" s="59" t="s">
         <v>168</v>
       </c>
@@ -12086,16 +12021,16 @@
       <c r="E17" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="115">
+      <c r="F17" s="112">
         <v>12</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="112" t="s">
         <v>186</v>
       </c>
       <c r="H17" t="s">
         <v>217</v>
       </c>
-      <c r="I17" s="115" t="s">
+      <c r="I17" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J17" s="59" t="s">
@@ -12142,16 +12077,16 @@
       <c r="E18" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="112">
         <v>12</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="G18" s="112" t="s">
         <v>187</v>
       </c>
       <c r="H18" t="s">
         <v>218</v>
       </c>
-      <c r="I18" s="115" t="s">
+      <c r="I18" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="59" t="s">
@@ -12196,16 +12131,16 @@
       <c r="E19" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="115">
+      <c r="F19" s="112">
         <v>11</v>
       </c>
-      <c r="G19" s="115" t="s">
+      <c r="G19" s="112" t="s">
         <v>188</v>
       </c>
       <c r="H19" t="s">
         <v>219</v>
       </c>
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="59" t="s">
@@ -12250,16 +12185,16 @@
       <c r="E20" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="112">
         <v>9</v>
       </c>
-      <c r="G20" s="115" t="s">
+      <c r="G20" s="112" t="s">
         <v>189</v>
       </c>
       <c r="H20" t="s">
         <v>220</v>
       </c>
-      <c r="I20" s="115"/>
+      <c r="I20" s="112"/>
       <c r="J20" s="59"/>
       <c r="K20" s="58"/>
       <c r="L20" s="58"/>
@@ -12300,16 +12235,16 @@
       <c r="E21" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="112">
         <v>12</v>
       </c>
-      <c r="G21" s="115" t="s">
+      <c r="G21" s="112" t="s">
         <v>190</v>
       </c>
       <c r="H21" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="115"/>
+      <c r="I21" s="112"/>
       <c r="J21" s="59"/>
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
@@ -12350,16 +12285,16 @@
       <c r="E22" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="112">
         <v>11</v>
       </c>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="112" t="s">
         <v>191</v>
       </c>
       <c r="H22" t="s">
         <v>222</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="59" t="s">
@@ -12404,16 +12339,16 @@
       <c r="E23" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="112">
         <v>12</v>
       </c>
-      <c r="G23" s="115" t="s">
+      <c r="G23" s="112" t="s">
         <v>192</v>
       </c>
       <c r="H23" t="s">
         <v>223</v>
       </c>
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="59" t="s">
@@ -12444,16 +12379,16 @@
       <c r="E24" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="115">
+      <c r="F24" s="112">
         <v>9</v>
       </c>
-      <c r="G24" s="115" t="s">
+      <c r="G24" s="112" t="s">
         <v>193</v>
       </c>
       <c r="H24" t="s">
         <v>224</v>
       </c>
-      <c r="I24" s="115"/>
+      <c r="I24" s="112"/>
       <c r="J24" s="59"/>
       <c r="K24" s="58"/>
       <c r="L24" s="58"/>
@@ -12481,16 +12416,16 @@
       <c r="E25" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="115">
+      <c r="F25" s="112">
         <v>12</v>
       </c>
-      <c r="G25" s="115" t="s">
+      <c r="G25" s="112" t="s">
         <v>194</v>
       </c>
       <c r="H25" t="s">
         <v>225</v>
       </c>
-      <c r="I25" s="115" t="s">
+      <c r="I25" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="59" t="s">
@@ -12521,16 +12456,16 @@
       <c r="E26" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="115">
+      <c r="F26" s="112">
         <v>10</v>
       </c>
-      <c r="G26" s="115" t="s">
+      <c r="G26" s="112" t="s">
         <v>195</v>
       </c>
       <c r="H26" t="s">
         <v>226</v>
       </c>
-      <c r="I26" s="115" t="s">
+      <c r="I26" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="59" t="s">
@@ -12562,16 +12497,16 @@
       <c r="E27" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="112">
         <v>12</v>
       </c>
-      <c r="G27" s="115" t="s">
+      <c r="G27" s="112" t="s">
         <v>196</v>
       </c>
       <c r="H27" t="s">
         <v>227</v>
       </c>
-      <c r="I27" s="115" t="s">
+      <c r="I27" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="59" t="s">
@@ -12602,16 +12537,16 @@
       <c r="E28" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="112">
         <v>11</v>
       </c>
-      <c r="G28" s="115" t="s">
+      <c r="G28" s="112" t="s">
         <v>197</v>
       </c>
       <c r="H28" t="s">
         <v>228</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="I28" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="59" t="s">
@@ -12642,16 +12577,16 @@
       <c r="E29" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F29" s="112">
         <v>9</v>
       </c>
-      <c r="G29" s="115" t="s">
+      <c r="G29" s="112" t="s">
         <v>198</v>
       </c>
       <c r="H29" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="115"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="59"/>
       <c r="K29" s="58"/>
       <c r="L29" s="58"/>
@@ -12692,16 +12627,16 @@
       <c r="E30" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F30" s="112">
         <v>12</v>
       </c>
-      <c r="G30" s="115" t="s">
+      <c r="G30" s="112" t="s">
         <v>199</v>
       </c>
       <c r="H30" t="s">
         <v>230</v>
       </c>
-      <c r="I30" s="115" t="s">
+      <c r="I30" s="112" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="59" t="s">
@@ -12750,16 +12685,16 @@
       <c r="E31" t="s">
         <v>161</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="112">
         <v>9</v>
       </c>
-      <c r="G31" s="115" t="s">
+      <c r="G31" s="112" t="s">
         <v>203</v>
       </c>
       <c r="H31" t="s">
         <v>231</v>
       </c>
-      <c r="I31" s="115"/>
+      <c r="I31" s="112"/>
       <c r="J31" s="59"/>
       <c r="K31" s="58"/>
       <c r="L31" s="58"/>
@@ -12805,16 +12740,16 @@
       <c r="E32" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="115">
+      <c r="F32" s="112">
         <v>9</v>
       </c>
-      <c r="G32" s="115" t="s">
+      <c r="G32" s="112" t="s">
         <v>200</v>
       </c>
       <c r="H32" t="s">
         <v>232</v>
       </c>
-      <c r="I32" s="115"/>
+      <c r="I32" s="112"/>
       <c r="J32" s="59"/>
       <c r="K32" s="58"/>
       <c r="L32" s="58"/>
@@ -12859,16 +12794,16 @@
       <c r="E33" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="115">
+      <c r="F33" s="112">
         <v>9</v>
       </c>
-      <c r="G33" s="115" t="s">
+      <c r="G33" s="112" t="s">
         <v>201</v>
       </c>
       <c r="H33" t="s">
         <v>233</v>
       </c>
-      <c r="I33" s="115"/>
+      <c r="I33" s="112"/>
       <c r="J33" s="59"/>
       <c r="K33" s="58"/>
       <c r="L33" s="58"/>
@@ -12914,16 +12849,16 @@
       <c r="E34" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="115">
+      <c r="F34" s="112">
         <v>9</v>
       </c>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="112" t="s">
         <v>202</v>
       </c>
       <c r="H34" t="s">
         <v>234</v>
       </c>
-      <c r="I34" s="115"/>
+      <c r="I34" s="112"/>
       <c r="J34" s="59"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
@@ -13134,45 +13069,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C40:F44">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE34">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
       <formula>($S$37)/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"None"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"Signed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F34">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Missing Waiver"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"None"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A34">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>OR($D3="None",$E3="None")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND($D3="Signed",$E3="Done")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>OR($D3="Given", $E3="Missing Waiver")</formula>
     </cfRule>
   </conditionalFormatting>
